--- a/url crawler/wiley/csv/Wiley_test.xlsx
+++ b/url crawler/wiley/csv/Wiley_test.xlsx
@@ -19,7 +19,7 @@
     <t xml:space="preserve">Keyword : </t>
   </si>
   <si>
-    <t>https://europepmc.org/search?query=plant%20breeding</t>
+    <t>https://link.springer.com/search?query=climate&amp;facet-content-type=%22Article%22</t>
   </si>
   <si>
     <t xml:space="preserve">Database : </t>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-08-02T10:34:48.701574</t>
+    <t>2018-09-07T13:57:17.151123</t>
   </si>
   <si>
     <t>S.No</t>
